--- a/reports/resnet18_23_no_MMTM/prediction/3/prediction_val_3.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/3/prediction_val_3.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
